--- a/apps/hrm/fixtures/import_templates/employee_template.xlsx
+++ b/apps/hrm/fixtures/import_templates/employee_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trangnn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manh/Downloads/projects/maivietland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC2B387-DB02-694E-BA70-576F014EA057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25964FDF-EBD8-BC42-AFB0-9C7B7353AD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{BA4144E9-4D9F-3B44-AF74-835FE8E52AAC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{BA4144E9-4D9F-3B44-AF74-835FE8E52AAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,28 +449,11 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>tvc://EMP?id=</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CTV000000310</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>&amp;action=V</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tvc://EMP?id=CTV000000310&amp;action=V</t>
         </r>
       </text>
     </comment>
@@ -1481,12 +1464,6 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>Mã MCC</t>
-  </si>
-  <si>
-    <t>Tình trạng</t>
-  </si>
-  <si>
     <t>Ngày bắt đầu làm việc</t>
   </si>
   <si>
@@ -1535,9 +1512,6 @@
     <t>Mã số thuế</t>
   </si>
   <si>
-    <t>Liên lạc khẩn cấp</t>
-  </si>
-  <si>
     <t>Giới tính</t>
   </si>
   <si>
@@ -1550,9 +1524,6 @@
     <t>Nguyên quán</t>
   </si>
   <si>
-    <t>Hôn nhân</t>
-  </si>
-  <si>
     <t>Dân tộc</t>
   </si>
   <si>
@@ -1565,9 +1536,6 @@
     <t>Số passport</t>
   </si>
   <si>
-    <t>Số CMND</t>
-  </si>
-  <si>
     <t>Ngày cấp</t>
   </si>
   <si>
@@ -2619,13 +2587,29 @@
   </si>
   <si>
     <t>VINHNTCTV@MVL</t>
+  </si>
+  <si>
+    <t>Mã chấm công</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Liên lạc khẩn cấp
+Số điện thoại</t>
+  </si>
+  <si>
+    <t>Tình trạng hôn nhân</t>
+  </si>
+  <si>
+    <t>Số CMND/CCCD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2640,14 +2624,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -2707,6 +2683,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF17365D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333F4F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2728,7 +2720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2749,19 +2741,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2938,98 +2917,100 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3349,2597 +3330,2597 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5551D2-3CFD-DE41-A92F-38D9A084B00E}">
   <dimension ref="A1:AL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:38" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="W1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="6"/>
+    </row>
+    <row r="3" spans="1:38" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="15"/>
+    </row>
+    <row r="4" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="C4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="D4" s="20" t="s">
         <v>37</v>
       </c>
+      <c r="E4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL4" s="28"/>
     </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+    <row r="5" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="8"/>
+      <c r="F5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK5" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL5" s="28"/>
     </row>
-    <row r="3" spans="1:38" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
+    <row r="6" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC6" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI6" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK6" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL6" s="28"/>
     </row>
-    <row r="4" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+    <row r="7" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL7" s="28"/>
+    </row>
+    <row r="8" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG8" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH8" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI8" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ8" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK8" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL8" s="28"/>
+    </row>
+    <row r="9" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB9" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK9" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL9" s="28"/>
+    </row>
+    <row r="10" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC10" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG10" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI10" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK10" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL10" s="28"/>
+    </row>
+    <row r="11" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22">
+        <v>45887</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X11" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB11" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG11" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI11" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ11" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK11" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL11" s="28"/>
+    </row>
+    <row r="12" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC12" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG12" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI12" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ12" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK12" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL12" s="28"/>
+    </row>
+    <row r="13" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>10</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22">
+        <v>45908</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="V13" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="W13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X13" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y13" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB13" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG13" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI13" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ13" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK13" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL13" s="28"/>
+    </row>
+    <row r="14" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG14" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI14" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ14" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK14" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL14" s="28"/>
+    </row>
+    <row r="15" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22">
+        <v>45936</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB15" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG15" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI15" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ15" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK15" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL15" s="28"/>
+    </row>
+    <row r="16" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <v>13</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22">
+        <v>45887</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC16" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG16" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI16" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ16" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK16" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL16" s="28"/>
+    </row>
+    <row r="17" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X17" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG17" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH17" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI17" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ17" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK17" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL17" s="28"/>
+    </row>
+    <row r="18" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>15</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG18" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH18" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI18" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ18" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK18" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL18" s="28"/>
+    </row>
+    <row r="19" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>16</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X19" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y19" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB19" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG19" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH19" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI19" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ19" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK19" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL19" s="28"/>
+    </row>
+    <row r="20" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <v>17</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22">
+        <v>45887</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB20" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC20" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG20" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH20" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI20" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ20" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK20" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL20" s="28"/>
+    </row>
+    <row r="21" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <v>18</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22">
+        <v>45908</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X21" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB21" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG21" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="AH21" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI21" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="AJ21" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="AK21" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL21" s="28"/>
+    </row>
+    <row r="22" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22">
+        <v>45832</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X22" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB22" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG22" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH22" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI22" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ22" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK22" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="AL22" s="28"/>
+    </row>
+    <row r="23" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <v>20</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="S23" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X23" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB23" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG23" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH23" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI23" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="AJ23" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="AK23" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL23" s="28"/>
+    </row>
+    <row r="24" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>21</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="S24" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X24" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y24" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB24" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG24" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH24" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI24" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ24" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK24" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL24" s="28"/>
+    </row>
+    <row r="25" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>22</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22">
+        <v>45936</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X25" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB25" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG25" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH25" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI25" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ25" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK25" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL25" s="28"/>
+    </row>
+    <row r="26" spans="1:38" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="15"/>
+    </row>
+    <row r="27" spans="1:38" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B27" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="H27" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="L27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="M27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="N27" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="25" t="s">
+      <c r="O27" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="T27" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="W27" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="25" t="s">
+      <c r="X27" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y27" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25" t="s">
+      <c r="AC27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" s="20" t="s">
+      <c r="AD27" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG27" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AC4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG4" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK4" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL4" s="30"/>
-    </row>
-    <row r="5" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC5" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD5" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG5" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH5" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI5" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ5" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL5" s="30"/>
-    </row>
-    <row r="6" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>3</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X6" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y6" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB6" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD6" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG6" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI6" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ6" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK6" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL6" s="30"/>
-    </row>
-    <row r="7" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>4</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG7" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH7" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI7" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ7" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK7" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL7" s="30"/>
-    </row>
-    <row r="8" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q8" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="T8" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="V8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="W8" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X8" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y8" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB8" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC8" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD8" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG8" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH8" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI8" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ8" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK8" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL8" s="30"/>
-    </row>
-    <row r="9" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>6</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q9" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="S9" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="W9" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X9" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB9" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH9" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI9" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ9" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK9" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL9" s="30"/>
-    </row>
-    <row r="10" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>7</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="R10" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC10" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD10" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG10" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH10" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI10" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ10" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK10" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL10" s="30"/>
-    </row>
-    <row r="11" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>8</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24">
-        <v>45887</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="S11" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X11" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y11" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB11" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC11" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD11" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG11" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH11" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI11" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ11" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK11" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL11" s="30"/>
-    </row>
-    <row r="12" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>9</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB12" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD12" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG12" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH12" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI12" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ12" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK12" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL12" s="30"/>
-    </row>
-    <row r="13" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>10</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24">
-        <v>45908</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q13" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="R13" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="S13" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="V13" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="W13" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X13" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y13" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB13" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC13" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD13" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG13" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH13" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI13" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ13" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK13" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL13" s="30"/>
-    </row>
-    <row r="14" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>11</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="R14" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X14" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y14" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB14" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC14" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD14" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG14" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH14" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI14" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ14" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK14" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL14" s="30"/>
-    </row>
-    <row r="15" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>12</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24">
-        <v>45936</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="R15" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="S15" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB15" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC15" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD15" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG15" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH15" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI15" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="AJ15" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK15" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="AL15" s="30"/>
-    </row>
-    <row r="16" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>13</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24">
-        <v>45887</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="R16" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="S16" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X16" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y16" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB16" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC16" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD16" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG16" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH16" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI16" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ16" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK16" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL16" s="30"/>
-    </row>
-    <row r="17" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
-        <v>14</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="R17" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="S17" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X17" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB17" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG17" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH17" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI17" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ17" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK17" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="AL17" s="30"/>
-    </row>
-    <row r="18" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>15</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="R18" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="S18" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X18" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="AG18" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH18" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI18" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ18" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK18" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL18" s="30"/>
-    </row>
-    <row r="19" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q19" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="R19" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="S19" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X19" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y19" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB19" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG19" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH19" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI19" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ19" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="AK19" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="AL19" s="30"/>
-    </row>
-    <row r="20" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>17</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24">
-        <v>45887</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="S20" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X20" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB20" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC20" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD20" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG20" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="AH20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI20" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="AJ20" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="AK20" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="AL20" s="30"/>
-    </row>
-    <row r="21" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
-        <v>18</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24">
-        <v>45908</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q21" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="S21" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X21" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y21" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB21" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG21" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH21" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI21" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="AJ21" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK21" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL21" s="30"/>
-    </row>
-    <row r="22" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>19</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24">
-        <v>45832</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q22" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="R22" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X22" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y22" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG22" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH22" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI22" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="AJ22" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="AK22" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="AL22" s="30"/>
-    </row>
-    <row r="23" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
-        <v>20</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q23" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="R23" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="S23" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X23" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y23" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB23" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG23" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="AH23" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI23" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="AJ23" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK23" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="AL23" s="30"/>
-    </row>
-    <row r="24" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
-        <v>21</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q24" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="R24" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="S24" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X24" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y24" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB24" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG24" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH24" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="AI24" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="AJ24" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="AK24" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="AL24" s="30"/>
-    </row>
-    <row r="25" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>22</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24">
-        <v>45936</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O25" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q25" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="R25" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="S25" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X25" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB25" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="AG25" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH25" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI25" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="AJ25" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="AK25" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="AL25" s="30"/>
-    </row>
-    <row r="26" spans="1:38" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="17"/>
-    </row>
-    <row r="27" spans="1:38" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
-        <v>1</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N27" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O27" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="P27" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q27" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="R27" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="S27" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="T27" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="U27" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="V27" s="20" t="s">
+      <c r="AI27" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="W27" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X27" s="20" t="s">
+      <c r="AJ27" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="Y27" s="20" t="s">
+      <c r="AK27" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB27" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC27" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD27" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="AG27" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH27" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI27" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ27" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="AK27" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="AL27" s="30"/>
+      <c r="AL27" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/apps/hrm/fixtures/import_templates/employee_template.xlsx
+++ b/apps/hrm/fixtures/import_templates/employee_template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manh/Downloads/projects/maivietland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25964FDF-EBD8-BC42-AFB0-9C7B7353AD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F705ACA5-E792-3044-85C8-BB5AA9DD7DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{BA4144E9-4D9F-3B44-AF74-835FE8E52AAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet điền thông tin nhân viên" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet lưu thông tin mẫu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1453,7 +1454,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="420">
   <si>
     <t>STT</t>
   </si>
@@ -2603,13 +2604,124 @@
   </si>
   <si>
     <t>Số CMND/CCCD</t>
+  </si>
+  <si>
+    <t>Phòng ban</t>
+  </si>
+  <si>
+    <t>Loại hợp đồng</t>
+  </si>
+  <si>
+    <t>Hôn nhân</t>
+  </si>
+  <si>
+    <t>Lý do nghỉ việc</t>
+  </si>
+  <si>
+    <t>Chi nhánh 1</t>
+  </si>
+  <si>
+    <t>Khối 1</t>
+  </si>
+  <si>
+    <t>Phòng ban 1</t>
+  </si>
+  <si>
+    <t>Chức vụ 1</t>
+  </si>
+  <si>
+    <t>Đang làm việc (W)</t>
+  </si>
+  <si>
+    <t>Danh sách Quốc tịch trong hệ thống</t>
+  </si>
+  <si>
+    <t>Thỏa thuận chấm dứt Hợp đồng lao động trước thời hạn</t>
+  </si>
+  <si>
+    <t>Chi nhánh 2</t>
+  </si>
+  <si>
+    <t>Khối 2</t>
+  </si>
+  <si>
+    <t>Phòng ban 2</t>
+  </si>
+  <si>
+    <t>Chức vụ 2</t>
+  </si>
+  <si>
+    <t>Đã nghỉ việc (C)</t>
+  </si>
+  <si>
+    <t>Thử việc không đạt</t>
+  </si>
+  <si>
+    <t>Chi nhánh 3</t>
+  </si>
+  <si>
+    <t>Khối 3</t>
+  </si>
+  <si>
+    <t>Chức vụ 3</t>
+  </si>
+  <si>
+    <t>Nghỉ không lương</t>
+  </si>
+  <si>
+    <t>Ly hôn</t>
+  </si>
+  <si>
+    <t>Bỏ việc</t>
+  </si>
+  <si>
+    <t>Chi nhánh 4</t>
+  </si>
+  <si>
+    <t>Nghỉ thai sản</t>
+  </si>
+  <si>
+    <t>Sa thải do kỷ luật</t>
+  </si>
+  <si>
+    <t>Học việc</t>
+  </si>
+  <si>
+    <t>Thanh lọc</t>
+  </si>
+  <si>
+    <t>Thực tập sinh</t>
+  </si>
+  <si>
+    <t>Thành tích kém trong công việc</t>
+  </si>
+  <si>
+    <t>Thử việc loại 1</t>
+  </si>
+  <si>
+    <t>Hết hợp đồng</t>
+  </si>
+  <si>
+    <t>Nguyện vọng theo đơn - Không đảm bảo sức khỏe</t>
+  </si>
+  <si>
+    <t>Nguyện vọng theo đơn - Bận việc cá nhân</t>
+  </si>
+  <si>
+    <t>Nguyện vọng theo đơn - Thay đổi định hướng công việc</t>
+  </si>
+  <si>
+    <t>Nguyện vọng theo đơn - Khác</t>
+  </si>
+  <si>
+    <t>Khác</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2698,6 +2810,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2919,7 +3050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3010,9 +3141,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3330,13 +3461,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5551D2-3CFD-DE41-A92F-38D9A084B00E}">
   <dimension ref="A1:AL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3561,7 +3692,9 @@
       <c r="H4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>408</v>
+      </c>
       <c r="J4" s="22"/>
       <c r="K4" s="20" t="s">
         <v>42</v>
@@ -3663,7 +3796,9 @@
       <c r="H5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21" t="s">
+        <v>410</v>
+      </c>
       <c r="J5" s="22"/>
       <c r="K5" s="20" t="s">
         <v>67</v>
@@ -3767,7 +3902,9 @@
       <c r="H6" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21" t="s">
+        <v>414</v>
+      </c>
       <c r="J6" s="22"/>
       <c r="K6" s="20" t="s">
         <v>67</v>
@@ -3871,7 +4008,9 @@
       <c r="H7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21" t="s">
+        <v>416</v>
+      </c>
       <c r="J7" s="22"/>
       <c r="K7" s="20" t="s">
         <v>67</v>
@@ -5925,5 +6064,302 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BBD31E9-DAAC-BE46-94C9-C35661D2F9BF}">
+          <x14:formula1>
+            <xm:f>'Sheet lưu thông tin mẫu'!$J$2:$J$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>I4:I27</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2550696C-3134-5447-91E6-8AE35803193B}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="J5" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="J6" s="33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="33" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="33" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="33" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="33" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>